--- a/SystemCode/frontend/smartportfolioWeb/src/smartportfolioWeb/portfolio_details.xlsx
+++ b/SystemCode/frontend/smartportfolioWeb/src/smartportfolioWeb/portfolio_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Edmund\Documents\GitHub\roboadvisorSystem\SystemCode\frontend\smartportfolioWeb\src\smartportfolioWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29D809A-3432-4D45-9714-30AF16A773C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A5DA6-1126-4707-8406-CF77667FE700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -96,18 +96,6 @@
     <t>Utilise Hierarchical Risk Parity (HRP) to get the optimum portfolio to minimise volatility based on universe of 11 SPDR sector ETFs</t>
   </si>
   <si>
-    <t>Sector-based MPT+AI (max sharpe)</t>
-  </si>
-  <si>
-    <t>MPT+AI</t>
-  </si>
-  <si>
-    <t>Utilise Modern Portfolio Theory (MPT) to get the optimum portfolio to maximise sharpe ratio based on universe of 11 SPDR sector ETFs. Modify allocation based on AI model</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -121,6 +109,27 @@
   </si>
   <si>
     <t>hrp</t>
+  </si>
+  <si>
+    <t>Ray Dalio All Weather</t>
+  </si>
+  <si>
+    <t>crb</t>
+  </si>
+  <si>
+    <t>ALL_WEATHER</t>
+  </si>
+  <si>
+    <t>CRB</t>
+  </si>
+  <si>
+    <t>This simplified all-weather portfolio, by Ray Dalio, involves a mix of 30% stocks, 40% long-term U.S. bonds, 15% intermediate U.S. bonds, 7.5% gold and 7.5% other commodities. It is resilient enough to weather different "economic seasons". See https://kristal.ai/blog/all-weather-portfolio-kristals/ for more details</t>
+  </si>
+  <si>
+    <t>CRB+SENT</t>
+  </si>
+  <si>
+    <t>This is a modification of Ray Dalio's all-weather portfolio, that uses Twitter Sentiments as trading signals. Tweets are converted to Sentiments using a BERT model and then scaled for each stock component through optimisation with Genetic Algorithm</t>
   </si>
 </sst>
 </file>
@@ -450,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +477,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -483,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -522,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -561,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -600,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -621,43 +630,82 @@
         <v>24.15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>mpt+ai_spdr_max_sharpe</v>
+        <v>crb_all_weather_crb</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>-5.1100000000000003</v>
+        <v>-3.87</v>
       </c>
       <c r="I5">
-        <v>-2.1</v>
+        <v>2.44</v>
       </c>
       <c r="J5">
-        <v>11.12</v>
+        <v>14.33</v>
       </c>
       <c r="K5">
-        <v>4.1100000000000003</v>
+        <v>13.29</v>
       </c>
       <c r="L5">
-        <v>21.3</v>
+        <v>20.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f t="shared" ref="A6" si="1">LOWER(D6&amp;"_"&amp;E6&amp;"_"&amp;F6)</f>
+        <v>crb+sent_all_weather_crb</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>8.44</v>
+      </c>
+      <c r="I6">
+        <v>5.34</v>
+      </c>
+      <c r="J6">
+        <v>20.12</v>
+      </c>
+      <c r="K6">
+        <v>15.22</v>
+      </c>
+      <c r="L6">
+        <v>22.12</v>
       </c>
     </row>
   </sheetData>

--- a/SystemCode/frontend/smartportfolioWeb/src/smartportfolioWeb/portfolio_details.xlsx
+++ b/SystemCode/frontend/smartportfolioWeb/src/smartportfolioWeb/portfolio_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Edmund\Documents\GitHub\roboadvisorSystem\SystemCode\frontend\smartportfolioWeb\src\smartportfolioWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02112392-24A4-4D57-B667-C18AFCD478EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDFA44D-B9FD-4979-B827-96CBFD36FCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +46,15 @@
     <t>model</t>
   </si>
   <si>
+    <t>market</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>benchmark</t>
+  </si>
+  <si>
     <t>30 days returns</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>US</t>
+  </si>
+  <si>
     <t>medium</t>
   </si>
   <si>
@@ -319,10 +328,91 @@
     <t>-20.632</t>
   </si>
   <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>US</t>
+    <t>bah_spdr_bah</t>
+  </si>
+  <si>
+    <t>Buy-and-Hold SPDR</t>
+  </si>
+  <si>
+    <t>Buy-and-Hold equally-weighted 11 SPDR sector ETFs</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>bah</t>
+  </si>
+  <si>
+    <t>-90.14</t>
+  </si>
+  <si>
+    <t>-27.656</t>
+  </si>
+  <si>
+    <t>-17.492</t>
+  </si>
+  <si>
+    <t>-9.142</t>
+  </si>
+  <si>
+    <t>-35.77</t>
+  </si>
+  <si>
+    <t>bah_all_weather_bah</t>
+  </si>
+  <si>
+    <t>Buy-and-Hold All-Weather</t>
+  </si>
+  <si>
+    <t>Buy-and-Hold All-Weather portfolio with 30% stocks, 40% long-term U.S. bonds, 15% intermediate U.S. bonds, 7.5% gold and 7.5% other commodities</t>
+  </si>
+  <si>
+    <t>-51.569</t>
+  </si>
+  <si>
+    <t>-14.552</t>
+  </si>
+  <si>
+    <t>11.468</t>
+  </si>
+  <si>
+    <t>8.45</t>
+  </si>
+  <si>
+    <t>-13.998</t>
+  </si>
+  <si>
+    <t>bah_spy_bah</t>
+  </si>
+  <si>
+    <t>Buy-and-Hold SPDR S&amp;P 500 ETF Trust (SPY). It is designed to track the S&amp;P 500 stock market index. This fund is the largest ETF in the world</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>-85.949</t>
+  </si>
+  <si>
+    <t>-24.635</t>
+  </si>
+  <si>
+    <t>-12.795</t>
+  </si>
+  <si>
+    <t>-6.401</t>
+  </si>
+  <si>
+    <t>-34.241</t>
+  </si>
+  <si>
+    <t>Buy-and-Hold SPY</t>
+  </si>
+  <si>
+    <t>spdr, spy</t>
+  </si>
+  <si>
+    <t>all_weather, spy</t>
   </si>
 </sst>
 </file>
@@ -686,18 +776,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,422 +804,590 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="I10" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="J10" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" t="s">
-        <v>97</v>
-      </c>
-      <c r="P9" t="s">
-        <v>98</v>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/SystemCode/frontend/smartportfolioWeb/src/smartportfolioWeb/portfolio_details.xlsx
+++ b/SystemCode/frontend/smartportfolioWeb/src/smartportfolioWeb/portfolio_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Edmund\Documents\GitHub\roboadvisorSystem\SystemCode\frontend\smartportfolioWeb\src\smartportfolioWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027D0AF4-5350-4684-B96B-5186AB820218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CC47D1-9A8C-443C-BE0F-1EF1A54CA845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,9 +193,6 @@
     <t>All-Weather</t>
   </si>
   <si>
-    <t>This simplified all-weather portfolio, by Ray Dalio, involves a mix of 30% stocks, 40% long-term U.S. bonds, 15% intermediate U.S. bonds, 7.5% gold and 7.5% other commodities. It is resilient enough to weather different "economic seasons". See https://kristal.ai/blog/all-weather-portfolio-kristals/ for more details</t>
-  </si>
-  <si>
     <t>CRB</t>
   </si>
   <si>
@@ -455,6 +452,9 @@
   </si>
   <si>
     <t>Buy-and-Hold All-SPY</t>
+  </si>
+  <si>
+    <t>This simplified all-weather portfolio, by Ray Dalio, involves a mix of 30% stocks, 40% long-term U.S. bonds, 15% intermediate U.S. bonds, 7.5% gold and 7.5% other commodities. It is resilient enough to weather different "economic seasons"</t>
   </si>
 </sst>
 </file>
@@ -820,10 +820,13 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1048,16 +1051,16 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -1066,48 +1069,48 @@
         <v>25</v>
       </c>
       <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
         <v>61</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>62</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>63</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>64</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s">
         <v>65</v>
       </c>
-      <c r="O5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>67</v>
-      </c>
-      <c r="R5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -1122,216 +1125,216 @@
         <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>73</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s">
         <v>74</v>
       </c>
-      <c r="O6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>76</v>
-      </c>
-      <c r="R6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
         <v>81</v>
       </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>83</v>
-      </c>
-      <c r="H7" t="s">
-        <v>84</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
       <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>86</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>87</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
         <v>88</v>
       </c>
-      <c r="O7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>90</v>
-      </c>
-      <c r="R7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
         <v>94</v>
       </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
         <v>95</v>
-      </c>
-      <c r="G8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" t="s">
-        <v>96</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
         <v>97</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>98</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s">
         <v>99</v>
       </c>
-      <c r="O8" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>100</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>101</v>
-      </c>
-      <c r="R8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>105</v>
       </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
       <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
         <v>108</v>
       </c>
-      <c r="K9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>109</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>110</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" t="s">
         <v>111</v>
       </c>
-      <c r="O9" t="s">
-        <v>110</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>113</v>
-      </c>
-      <c r="R9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>117</v>
-      </c>
-      <c r="D10" t="s">
-        <v>118</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
@@ -1343,45 +1346,45 @@
         <v>26</v>
       </c>
       <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="s">
         <v>120</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>121</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" t="s">
         <v>122</v>
       </c>
-      <c r="O10" t="s">
-        <v>121</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>123</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>124</v>
-      </c>
-      <c r="R10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
         <v>126</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>127</v>
       </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
       <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
         <v>118</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>119</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -1390,48 +1393,48 @@
         <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="s">
         <v>129</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>130</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" t="s">
         <v>131</v>
       </c>
-      <c r="O11" t="s">
-        <v>130</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>132</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>133</v>
-      </c>
-      <c r="R11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
         <v>135</v>
       </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
         <v>136</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>118</v>
-      </c>
-      <c r="E12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" t="s">
-        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
@@ -1443,25 +1446,25 @@
         <v>26</v>
       </c>
       <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="s">
         <v>138</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>139</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" t="s">
         <v>140</v>
       </c>
-      <c r="O12" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>141</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>142</v>
-      </c>
-      <c r="R12" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
